--- a/islam/이슬람빈도.xlsx
+++ b/islam/이슬람빈도.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hannews\Desktop\한겨레21\빅데이터\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6B861018-1460-4AE0-BB44-BAF5983195A8}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4766045F-AA8E-4699-85EA-5EF3CF0B9260}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="4390" xr2:uid="{E69FAB2E-66A6-49A5-AA98-6DF41E13FA1D}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="4390" firstSheet="16" activeTab="28" xr2:uid="{E69FAB2E-66A6-49A5-AA98-6DF41E13FA1D}"/>
   </bookViews>
   <sheets>
     <sheet name="2018" sheetId="1" r:id="rId1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="639" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="639" uniqueCount="113">
   <si>
     <t>vectordata</t>
   </si>
@@ -92,9 +92,6 @@
   </si>
   <si>
     <t>여성</t>
-  </si>
-  <si>
-    <t>이슬람</t>
   </si>
   <si>
     <t>지역</t>
@@ -402,6 +399,27 @@
       <t>비</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레바논</t>
+  </si>
+  <si>
+    <t>시아파</t>
+  </si>
+  <si>
+    <t>라덴</t>
+  </si>
+  <si>
+    <t>개혁파</t>
+  </si>
+  <si>
+    <t>클린턴</t>
+  </si>
+  <si>
+    <t>연합</t>
+  </si>
+  <si>
+    <t>해결</t>
   </si>
 </sst>
 </file>
@@ -872,8 +890,8 @@
   </sheetPr>
   <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -1002,11 +1020,11 @@
       <c r="A12" s="3">
         <v>10</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="7">
-        <v>919</v>
+      <c r="C12" s="5">
+        <v>777</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
@@ -1017,106 +1035,106 @@
         <v>12</v>
       </c>
       <c r="C13" s="5">
-        <v>777</v>
+        <v>744</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A14" s="3">
         <v>12</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="5">
-        <v>744</v>
+      <c r="C14" s="7">
+        <v>736</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A15" s="3">
         <v>13</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="7">
-        <v>736</v>
+      <c r="C15" s="5">
+        <v>714</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A16" s="3">
         <v>14</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="5">
-        <v>714</v>
+      <c r="C16" s="7">
+        <v>701</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A17" s="3">
         <v>15</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="7">
-        <v>701</v>
+      <c r="C17" s="5">
+        <v>676</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A18" s="3">
         <v>16</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="5">
-        <v>676</v>
+      <c r="C18" s="7">
+        <v>668</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A19" s="3">
         <v>17</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="7">
-        <v>668</v>
+      <c r="C19" s="5">
+        <v>666</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A20" s="3">
         <v>18</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C20" s="5">
-        <v>666</v>
+      <c r="C20" s="7">
+        <v>654</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A21" s="3">
         <v>19</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="B21" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C21" s="7">
-        <v>654</v>
+      <c r="C21" s="5">
+        <v>646</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A22" s="3">
         <v>20</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C22" s="5">
-        <v>646</v>
+      <c r="C22" s="7">
+        <v>631</v>
       </c>
     </row>
   </sheetData>
@@ -1133,8 +1151,8 @@
   </sheetPr>
   <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22:C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -1186,88 +1204,88 @@
       <c r="A5" s="3">
         <v>3</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="5">
-        <v>2109</v>
+      <c r="B5" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="7">
+        <v>1839</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A6" s="3">
         <v>4</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="7">
-        <v>1839</v>
+      <c r="B6" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="5">
+        <v>1492</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A7" s="3">
         <v>5</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C7" s="5">
-        <v>1492</v>
+      <c r="B7" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="7">
+        <v>1350</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A8" s="3">
         <v>6</v>
       </c>
-      <c r="B8" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="7">
-        <v>1350</v>
+      <c r="B8" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="5">
+        <v>1046</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A9" s="3">
         <v>7</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="5">
-        <v>1046</v>
+      <c r="B9" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C9" s="7">
+        <v>1001</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A10" s="3">
         <v>8</v>
       </c>
-      <c r="B10" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="C10" s="7">
-        <v>1001</v>
+      <c r="B10" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="5">
+        <v>921</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A11" s="3">
         <v>9</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11" s="5">
-        <v>921</v>
+      <c r="B11" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="7">
+        <v>906</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A12" s="3">
         <v>10</v>
       </c>
-      <c r="B12" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" s="7">
-        <v>906</v>
+      <c r="B12" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C12" s="5">
+        <v>862</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
@@ -1275,75 +1293,75 @@
         <v>11</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>66</v>
+        <v>9</v>
       </c>
       <c r="C13" s="5">
-        <v>862</v>
+        <v>820</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A14" s="3">
         <v>12</v>
       </c>
-      <c r="B14" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" s="5">
-        <v>820</v>
+      <c r="B14" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C14" s="7">
+        <v>782</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A15" s="3">
         <v>13</v>
       </c>
-      <c r="B15" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="C15" s="7">
-        <v>782</v>
+      <c r="B15" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="5">
+        <v>757</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A16" s="3">
         <v>14</v>
       </c>
-      <c r="B16" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C16" s="5">
-        <v>757</v>
+      <c r="B16" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="C16" s="7">
+        <v>707</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A17" s="3">
         <v>15</v>
       </c>
-      <c r="B17" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="C17" s="7">
-        <v>707</v>
+      <c r="B17" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" s="5">
+        <v>692</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A18" s="3">
         <v>16</v>
       </c>
-      <c r="B18" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C18" s="5">
-        <v>692</v>
+      <c r="B18" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="C18" s="7">
+        <v>667</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A19" s="3">
         <v>17</v>
       </c>
-      <c r="B19" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="C19" s="7">
+      <c r="B19" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C19" s="5">
         <v>667</v>
       </c>
     </row>
@@ -1351,33 +1369,33 @@
       <c r="A20" s="3">
         <v>18</v>
       </c>
-      <c r="B20" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="C20" s="5">
-        <v>667</v>
+      <c r="B20" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" s="7">
+        <v>657</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A21" s="3">
         <v>19</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="B21" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C21" s="7">
-        <v>657</v>
+      <c r="C21" s="5">
+        <v>653</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A22" s="3">
         <v>20</v>
       </c>
-      <c r="B22" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C22" s="5">
-        <v>653</v>
+      <c r="B22" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22" s="7">
+        <v>642</v>
       </c>
     </row>
   </sheetData>
@@ -1394,8 +1412,8 @@
   </sheetPr>
   <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22:C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -1436,209 +1454,209 @@
       <c r="A4" s="3">
         <v>2</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="7">
-        <v>1424</v>
+      <c r="B4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="5">
+        <v>1213</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A5" s="3">
         <v>3</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="5">
-        <v>1213</v>
+      <c r="B5" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C5" s="7">
+        <v>1049</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A6" s="3">
         <v>4</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="C6" s="7">
-        <v>1049</v>
+      <c r="B6" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="5">
+        <v>955</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A7" s="3">
         <v>5</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="5">
-        <v>955</v>
+      <c r="B7" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C7" s="7">
+        <v>798</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A8" s="3">
         <v>6</v>
       </c>
-      <c r="B8" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="C8" s="7">
-        <v>798</v>
+      <c r="B8" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="5">
+        <v>742</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A9" s="3">
         <v>7</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9" s="5">
-        <v>742</v>
+      <c r="B9" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="7">
+        <v>629</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A10" s="3">
         <v>8</v>
       </c>
-      <c r="B10" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="7">
-        <v>629</v>
+      <c r="B10" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="5">
+        <v>627</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A11" s="3">
         <v>9</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="5">
-        <v>627</v>
+      <c r="B11" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="7">
+        <v>584</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A12" s="3">
         <v>10</v>
       </c>
-      <c r="B12" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" s="7">
-        <v>584</v>
+      <c r="B12" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12" s="5">
+        <v>580</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A13" s="3">
         <v>11</v>
       </c>
-      <c r="B13" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="C13" s="5">
-        <v>580</v>
+      <c r="B13" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="7">
+        <v>557</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A14" s="3">
         <v>12</v>
       </c>
-      <c r="B14" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" s="7">
-        <v>557</v>
+      <c r="B14" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="5">
+        <v>551</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A15" s="3">
         <v>13</v>
       </c>
-      <c r="B15" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C15" s="5">
-        <v>551</v>
+      <c r="B15" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" s="7">
+        <v>511</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A16" s="3">
         <v>14</v>
       </c>
-      <c r="B16" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="C16" s="7">
-        <v>511</v>
+      <c r="B16" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="5">
+        <v>503</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A17" s="3">
         <v>15</v>
       </c>
-      <c r="B17" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C17" s="5">
-        <v>503</v>
+      <c r="B17" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" s="7">
+        <v>494</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A18" s="3">
         <v>16</v>
       </c>
-      <c r="B18" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="C18" s="7">
-        <v>494</v>
+      <c r="B18" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" s="5">
+        <v>466</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A19" s="3">
         <v>17</v>
       </c>
-      <c r="B19" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C19" s="5">
-        <v>466</v>
+      <c r="B19" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19" s="7">
+        <v>453</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A20" s="3">
         <v>18</v>
       </c>
-      <c r="B20" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="C20" s="7">
-        <v>453</v>
+      <c r="B20" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" s="5">
+        <v>434</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A21" s="3">
         <v>19</v>
       </c>
-      <c r="B21" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C21" s="5">
-        <v>434</v>
+      <c r="B21" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" s="7">
+        <v>432</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A22" s="3">
         <v>20</v>
       </c>
-      <c r="B22" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C22" s="7">
-        <v>432</v>
+      <c r="B22" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C22" s="5">
+        <v>428</v>
       </c>
     </row>
   </sheetData>
@@ -1655,8 +1673,8 @@
   </sheetPr>
   <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22:C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -1686,176 +1704,176 @@
       <c r="A3" s="3">
         <v>1</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="5">
-        <v>2757</v>
+      <c r="B3" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="7">
+        <v>2285</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A4" s="3">
         <v>2</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="7">
-        <v>2285</v>
+      <c r="B4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="5">
+        <v>2089</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A5" s="3">
         <v>3</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="5">
-        <v>2089</v>
+      <c r="B5" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="7">
+        <v>1344</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A6" s="3">
         <v>4</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="7">
-        <v>1344</v>
+      <c r="B6" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" s="5">
+        <v>1260</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A7" s="3">
         <v>5</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C7" s="5">
-        <v>1260</v>
+      <c r="B7" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="7">
+        <v>1176</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A8" s="3">
         <v>6</v>
       </c>
-      <c r="B8" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C8" s="7">
-        <v>1176</v>
+      <c r="B8" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="5">
+        <v>1105</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A9" s="3">
         <v>7</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C9" s="5">
-        <v>1105</v>
+      <c r="B9" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="7">
+        <v>1074</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A10" s="3">
         <v>8</v>
       </c>
-      <c r="B10" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="7">
-        <v>1074</v>
+      <c r="B10" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="5">
+        <v>1055</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A11" s="3">
         <v>9</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" s="5">
-        <v>1055</v>
+      <c r="B11" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C11" s="7">
+        <v>1054</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A12" s="3">
         <v>10</v>
       </c>
-      <c r="B12" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="C12" s="7">
-        <v>1054</v>
+      <c r="B12" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="5">
+        <v>1052</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A13" s="3">
         <v>11</v>
       </c>
-      <c r="B13" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13" s="5">
-        <v>1052</v>
+      <c r="B13" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="7">
+        <v>1046</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A14" s="3">
         <v>12</v>
       </c>
-      <c r="B14" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C14" s="7">
-        <v>1046</v>
+      <c r="B14" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C14" s="5">
+        <v>1010</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A15" s="3">
         <v>13</v>
       </c>
-      <c r="B15" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="C15" s="5">
-        <v>1010</v>
+      <c r="B15" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="C15" s="7">
+        <v>981</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A16" s="3">
         <v>14</v>
       </c>
-      <c r="B16" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="C16" s="7">
-        <v>981</v>
+      <c r="B16" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="5">
+        <v>970</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A17" s="3">
         <v>15</v>
       </c>
-      <c r="B17" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C17" s="5">
-        <v>970</v>
+      <c r="B17" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C17" s="7">
+        <v>965</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A18" s="3">
         <v>16</v>
       </c>
-      <c r="B18" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="C18" s="7">
-        <v>965</v>
+      <c r="B18" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" s="5">
+        <v>902</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
@@ -1863,43 +1881,43 @@
         <v>17</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="C19" s="5">
-        <v>902</v>
+        <v>837</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A20" s="3">
         <v>18</v>
       </c>
-      <c r="B20" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C20" s="5">
-        <v>837</v>
+      <c r="B20" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C20" s="7">
+        <v>822</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A21" s="3">
         <v>19</v>
       </c>
-      <c r="B21" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C21" s="7">
-        <v>822</v>
+      <c r="B21" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21" s="5">
+        <v>795</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A22" s="3">
         <v>20</v>
       </c>
-      <c r="B22" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C22" s="5">
-        <v>795</v>
+      <c r="B22" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22" s="7">
+        <v>776</v>
       </c>
     </row>
   </sheetData>
@@ -1917,7 +1935,7 @@
   <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+      <selection activeCell="B22" sqref="B22:C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -1947,198 +1965,198 @@
       <c r="A3" s="3">
         <v>1</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="5">
-        <v>4357</v>
+      <c r="B3" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="7">
+        <v>3714</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A4" s="3">
         <v>2</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="7">
-        <v>3714</v>
+      <c r="B4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="5">
+        <v>2296</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A5" s="3">
         <v>3</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="5">
-        <v>2296</v>
+      <c r="B5" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="7">
+        <v>2289</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A6" s="3">
         <v>4</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" s="7">
-        <v>2289</v>
+      <c r="B6" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" s="5">
+        <v>2206</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A7" s="3">
         <v>5</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C7" s="5">
-        <v>2206</v>
+      <c r="B7" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="7">
+        <v>1772</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A8" s="3">
         <v>6</v>
       </c>
-      <c r="B8" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C8" s="7">
-        <v>1772</v>
+      <c r="B8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="5">
+        <v>1724</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A9" s="3">
         <v>7</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="5">
-        <v>1724</v>
+      <c r="B9" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="7">
+        <v>1556</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A10" s="3">
         <v>8</v>
       </c>
-      <c r="B10" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C10" s="7">
-        <v>1556</v>
+      <c r="B10" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="5">
+        <v>1394</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A11" s="3">
         <v>9</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="5">
-        <v>1394</v>
+      <c r="B11" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" s="7">
+        <v>1310</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A12" s="3">
         <v>10</v>
       </c>
-      <c r="B12" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="C12" s="7">
-        <v>1310</v>
+      <c r="B12" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="5">
+        <v>1239</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A13" s="3">
         <v>11</v>
       </c>
-      <c r="B13" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C13" s="5">
-        <v>1239</v>
+      <c r="B13" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="C13" s="7">
+        <v>1238</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A14" s="3">
         <v>12</v>
       </c>
-      <c r="B14" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="C14" s="7">
-        <v>1238</v>
+      <c r="B14" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="5">
+        <v>1235</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A15" s="3">
         <v>13</v>
       </c>
-      <c r="B15" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" s="5">
-        <v>1235</v>
+      <c r="B15" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="7">
+        <v>1207</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A16" s="3">
         <v>14</v>
       </c>
-      <c r="B16" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C16" s="7">
-        <v>1207</v>
+      <c r="B16" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" s="5">
+        <v>1205</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A17" s="3">
         <v>15</v>
       </c>
-      <c r="B17" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C17" s="5">
-        <v>1205</v>
+      <c r="B17" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" s="7">
+        <v>1203</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A18" s="3">
         <v>16</v>
       </c>
-      <c r="B18" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="C18" s="7">
-        <v>1203</v>
+      <c r="B18" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" s="5">
+        <v>1132</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A19" s="3">
         <v>17</v>
       </c>
-      <c r="B19" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C19" s="5">
-        <v>1132</v>
+      <c r="B19" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="C19" s="7">
+        <v>1128</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A20" s="3">
         <v>18</v>
       </c>
-      <c r="B20" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="C20" s="7">
-        <v>1128</v>
+      <c r="B20" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" s="5">
+        <v>1118</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
@@ -2146,21 +2164,21 @@
         <v>19</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C21" s="5">
-        <v>1118</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A22" s="3">
         <v>20</v>
       </c>
-      <c r="B22" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C22" s="5">
-        <v>1030</v>
+      <c r="B22" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="C22" s="7">
+        <v>968</v>
       </c>
     </row>
   </sheetData>
@@ -2177,8 +2195,8 @@
   </sheetPr>
   <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B22" sqref="B22:C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -2208,99 +2226,99 @@
       <c r="A3" s="3">
         <v>1</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="5">
-        <v>3950</v>
+      <c r="B3" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="7">
+        <v>3108</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A4" s="3">
         <v>2</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="7">
-        <v>3108</v>
+      <c r="B4" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" s="5">
+        <v>2845</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A5" s="3">
         <v>3</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C5" s="5">
-        <v>2845</v>
+      <c r="B5" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="7">
+        <v>2526</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A6" s="3">
         <v>4</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="7">
-        <v>2526</v>
+      <c r="B6" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="5">
+        <v>1868</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A7" s="3">
         <v>5</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="5">
-        <v>1868</v>
+      <c r="B7" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="7">
+        <v>1843</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A8" s="3">
         <v>6</v>
       </c>
-      <c r="B8" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="7">
-        <v>1843</v>
+      <c r="B8" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="5">
+        <v>1640</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A9" s="3">
         <v>7</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9" s="5">
-        <v>1640</v>
+      <c r="B9" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="7">
+        <v>1455</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A10" s="3">
         <v>8</v>
       </c>
-      <c r="B10" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" s="7">
-        <v>1455</v>
+      <c r="B10" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="5">
+        <v>1210</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A11" s="3">
         <v>9</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" s="5">
-        <v>1210</v>
+      <c r="B11" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" s="7">
+        <v>1208</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
@@ -2308,43 +2326,43 @@
         <v>10</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="C12" s="7">
-        <v>1208</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A13" s="3">
         <v>11</v>
       </c>
-      <c r="B13" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" s="7">
-        <v>1137</v>
+      <c r="B13" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="5">
+        <v>1110</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A14" s="3">
         <v>12</v>
       </c>
-      <c r="B14" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" s="5">
-        <v>1110</v>
+      <c r="B14" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="7">
+        <v>1100</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A15" s="3">
         <v>13</v>
       </c>
-      <c r="B15" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C15" s="7">
-        <v>1100</v>
+      <c r="B15" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="5">
+        <v>1081</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
@@ -2352,10 +2370,10 @@
         <v>14</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C16" s="5">
-        <v>1081</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
@@ -2363,65 +2381,65 @@
         <v>15</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>12</v>
+        <v>76</v>
       </c>
       <c r="C17" s="5">
-        <v>1060</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A18" s="3">
         <v>16</v>
       </c>
-      <c r="B18" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="C18" s="5">
-        <v>1011</v>
+      <c r="B18" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" s="7">
+        <v>985</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A19" s="3">
         <v>17</v>
       </c>
-      <c r="B19" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C19" s="7">
-        <v>985</v>
+      <c r="B19" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19" s="5">
+        <v>982</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A20" s="3">
         <v>18</v>
       </c>
-      <c r="B20" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C20" s="5">
-        <v>982</v>
+      <c r="B20" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C20" s="7">
+        <v>970</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A21" s="3">
         <v>19</v>
       </c>
-      <c r="B21" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="C21" s="7">
-        <v>970</v>
+      <c r="B21" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C21" s="5">
+        <v>969</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A22" s="3">
         <v>20</v>
       </c>
-      <c r="B22" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C22" s="5">
-        <v>969</v>
+      <c r="B22" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C22" s="7">
+        <v>963</v>
       </c>
     </row>
   </sheetData>
@@ -2438,8 +2456,8 @@
   </sheetPr>
   <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22:C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -2470,7 +2488,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C3" s="5">
         <v>6584</v>
@@ -2480,165 +2498,165 @@
       <c r="A4" s="3">
         <v>2</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="7">
-        <v>4619</v>
+      <c r="B4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="5">
+        <v>4046</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A5" s="3">
         <v>3</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="5">
-        <v>4046</v>
+      <c r="B5" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="7">
+        <v>3153</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A6" s="3">
         <v>4</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="7">
-        <v>3153</v>
+      <c r="B6" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="5">
+        <v>2567</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A7" s="3">
         <v>5</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="5">
-        <v>2567</v>
+      <c r="B7" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" s="7">
+        <v>2243</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A8" s="3">
         <v>6</v>
       </c>
-      <c r="B8" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="C8" s="7">
-        <v>2243</v>
+      <c r="B8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="5">
+        <v>1824</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A9" s="3">
         <v>7</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="5">
-        <v>1824</v>
+      <c r="B9" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="7">
+        <v>1774</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A10" s="3">
         <v>8</v>
       </c>
-      <c r="B10" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" s="7">
-        <v>1774</v>
+      <c r="B10" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="5">
+        <v>1625</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A11" s="3">
         <v>9</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="5">
-        <v>1625</v>
+      <c r="B11" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="C11" s="7">
+        <v>1461</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A12" s="3">
         <v>10</v>
       </c>
-      <c r="B12" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="C12" s="7">
-        <v>1461</v>
+      <c r="B12" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="5">
+        <v>1454</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A13" s="3">
         <v>11</v>
       </c>
-      <c r="B13" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C13" s="5">
-        <v>1454</v>
+      <c r="B13" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="7">
+        <v>1438</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A14" s="3">
         <v>12</v>
       </c>
-      <c r="B14" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" s="7">
-        <v>1438</v>
+      <c r="B14" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="5">
+        <v>1295</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A15" s="3">
         <v>13</v>
       </c>
-      <c r="B15" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C15" s="5">
-        <v>1295</v>
+      <c r="B15" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" s="7">
+        <v>1264</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A16" s="3">
         <v>14</v>
       </c>
-      <c r="B16" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="C16" s="7">
-        <v>1264</v>
+      <c r="B16" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" s="5">
+        <v>1255</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A17" s="3">
         <v>15</v>
       </c>
-      <c r="B17" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C17" s="5">
-        <v>1255</v>
+      <c r="B17" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="7">
+        <v>1229</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A18" s="3">
         <v>16</v>
       </c>
-      <c r="B18" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C18" s="7">
-        <v>1229</v>
+      <c r="B18" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" s="5">
+        <v>1153</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
@@ -2646,21 +2664,21 @@
         <v>17</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="C19" s="5">
-        <v>1153</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A20" s="3">
         <v>18</v>
       </c>
-      <c r="B20" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C20" s="5">
-        <v>1127</v>
+      <c r="B20" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="C20" s="7">
+        <v>1093</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
@@ -2668,21 +2686,21 @@
         <v>19</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>82</v>
+        <v>58</v>
       </c>
       <c r="C21" s="7">
-        <v>1093</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A22" s="3">
         <v>20</v>
       </c>
-      <c r="B22" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="C22" s="7">
-        <v>1081</v>
+      <c r="B22" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="C22" s="5">
+        <v>1080</v>
       </c>
     </row>
   </sheetData>
@@ -2699,8 +2717,8 @@
   </sheetPr>
   <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22:C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -2731,7 +2749,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C3" s="5">
         <v>6384</v>
@@ -2752,154 +2770,154 @@
       <c r="A5" s="3">
         <v>3</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="5">
-        <v>3567</v>
+      <c r="B5" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="7">
+        <v>2672</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A6" s="3">
         <v>4</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="7">
-        <v>2672</v>
+      <c r="B6" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="5">
+        <v>2249</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A7" s="3">
         <v>5</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C7" s="5">
-        <v>2249</v>
+      <c r="B7" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" s="7">
+        <v>2097</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A8" s="3">
         <v>6</v>
       </c>
-      <c r="B8" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="C8" s="7">
-        <v>2097</v>
+      <c r="B8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="5">
+        <v>2075</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A9" s="3">
         <v>7</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="5">
-        <v>2075</v>
+      <c r="B9" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="C9" s="7">
+        <v>1864</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A10" s="3">
         <v>8</v>
       </c>
-      <c r="B10" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="C10" s="7">
-        <v>1864</v>
+      <c r="B10" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="5">
+        <v>1732</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A11" s="3">
         <v>9</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" s="5">
-        <v>1732</v>
+      <c r="B11" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="7">
+        <v>1562</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A12" s="3">
         <v>10</v>
       </c>
-      <c r="B12" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" s="7">
-        <v>1562</v>
+      <c r="B12" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="5">
+        <v>1439</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A13" s="3">
         <v>11</v>
       </c>
-      <c r="B13" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C13" s="5">
-        <v>1439</v>
+      <c r="B13" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="7">
+        <v>1418</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A14" s="3">
         <v>12</v>
       </c>
-      <c r="B14" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C14" s="7">
-        <v>1418</v>
+      <c r="B14" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C14" s="5">
+        <v>1373</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A15" s="3">
         <v>13</v>
       </c>
-      <c r="B15" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="C15" s="5">
-        <v>1373</v>
+      <c r="B15" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C15" s="7">
+        <v>1195</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A16" s="3">
         <v>14</v>
       </c>
-      <c r="B16" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="C16" s="7">
-        <v>1195</v>
+      <c r="B16" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C16" s="5">
+        <v>1186</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A17" s="3">
         <v>15</v>
       </c>
-      <c r="B17" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="C17" s="5">
-        <v>1186</v>
+      <c r="B17" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="7">
+        <v>1159</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A18" s="3">
         <v>16</v>
       </c>
-      <c r="B18" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C18" s="7">
-        <v>1159</v>
+      <c r="B18" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C18" s="5">
+        <v>1011</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
@@ -2907,43 +2925,43 @@
         <v>17</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>78</v>
+        <v>6</v>
       </c>
       <c r="C19" s="5">
-        <v>1011</v>
+        <v>975</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A20" s="3">
         <v>18</v>
       </c>
-      <c r="B20" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C20" s="5">
-        <v>975</v>
+      <c r="B20" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" s="7">
+        <v>972</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A21" s="3">
         <v>19</v>
       </c>
-      <c r="B21" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C21" s="7">
-        <v>972</v>
+      <c r="B21" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C21" s="5">
+        <v>954</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A22" s="3">
         <v>20</v>
       </c>
-      <c r="B22" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="C22" s="5">
-        <v>954</v>
+      <c r="B22" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" s="7">
+        <v>927</v>
       </c>
     </row>
   </sheetData>
@@ -2960,8 +2978,8 @@
   </sheetPr>
   <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22:C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -3013,121 +3031,121 @@
       <c r="A5" s="3">
         <v>3</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="5">
-        <v>3565</v>
+      <c r="B5" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="7">
+        <v>1676</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A6" s="3">
         <v>4</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" s="7">
-        <v>1676</v>
+      <c r="B6" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" s="5">
+        <v>1631</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A7" s="3">
         <v>5</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C7" s="5">
-        <v>1631</v>
+      <c r="B7" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="7">
+        <v>1532</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A8" s="3">
         <v>6</v>
       </c>
-      <c r="B8" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="C8" s="7">
-        <v>1532</v>
+      <c r="B8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="5">
+        <v>1524</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A9" s="3">
         <v>7</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="5">
-        <v>1524</v>
+      <c r="B9" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="7">
+        <v>1518</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A10" s="3">
         <v>8</v>
       </c>
-      <c r="B10" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="7">
-        <v>1518</v>
+      <c r="B10" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="5">
+        <v>1415</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A11" s="3">
         <v>9</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11" s="5">
-        <v>1415</v>
+      <c r="B11" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="C11" s="7">
+        <v>1412</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A12" s="3">
         <v>10</v>
       </c>
-      <c r="B12" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="C12" s="7">
-        <v>1412</v>
+      <c r="B12" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="5">
+        <v>1334</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A13" s="3">
         <v>11</v>
       </c>
-      <c r="B13" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C13" s="5">
-        <v>1334</v>
+      <c r="B13" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C13" s="7">
+        <v>1198</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A14" s="3">
         <v>12</v>
       </c>
-      <c r="B14" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="C14" s="7">
-        <v>1198</v>
+      <c r="B14" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C14" s="5">
+        <v>1165</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A15" s="3">
         <v>13</v>
       </c>
-      <c r="B15" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="C15" s="5">
-        <v>1165</v>
+      <c r="B15" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C15" s="7">
+        <v>1020</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
@@ -3135,21 +3153,21 @@
         <v>14</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="C16" s="7">
-        <v>1020</v>
+        <v>986</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A17" s="3">
         <v>15</v>
       </c>
-      <c r="B17" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C17" s="7">
-        <v>986</v>
+      <c r="B17" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" s="5">
+        <v>921</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
@@ -3160,7 +3178,7 @@
         <v>12</v>
       </c>
       <c r="C18" s="5">
-        <v>921</v>
+        <v>881</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
@@ -3168,43 +3186,43 @@
         <v>17</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="C19" s="5">
-        <v>881</v>
+        <v>843</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A20" s="3">
         <v>18</v>
       </c>
-      <c r="B20" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C20" s="5">
-        <v>843</v>
+      <c r="B20" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C20" s="7">
+        <v>805</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A21" s="3">
         <v>19</v>
       </c>
-      <c r="B21" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="C21" s="7">
-        <v>805</v>
+      <c r="B21" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" s="5">
+        <v>804</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A22" s="3">
         <v>20</v>
       </c>
-      <c r="B22" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C22" s="5">
-        <v>804</v>
+      <c r="B22" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C22" s="7">
+        <v>794</v>
       </c>
     </row>
   </sheetData>
@@ -3221,8 +3239,8 @@
   </sheetPr>
   <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22:C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -3263,110 +3281,110 @@
       <c r="A4" s="3">
         <v>2</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="7">
-        <v>5468</v>
+      <c r="B4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="5">
+        <v>5080</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A5" s="3">
         <v>3</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="5">
-        <v>5080</v>
+      <c r="B5" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="7">
+        <v>3098</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A6" s="3">
         <v>4</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="7">
-        <v>3098</v>
+      <c r="B6" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="5">
+        <v>2634</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A7" s="3">
         <v>5</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C7" s="5">
-        <v>2634</v>
+      <c r="B7" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C7" s="7">
+        <v>2579</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A8" s="3">
         <v>6</v>
       </c>
-      <c r="B8" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="C8" s="7">
-        <v>2579</v>
+      <c r="B8" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C8" s="5">
+        <v>2435</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A9" s="3">
         <v>7</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="C9" s="5">
-        <v>2435</v>
+      <c r="B9" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="7">
+        <v>2311</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A10" s="3">
         <v>8</v>
       </c>
-      <c r="B10" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" s="7">
-        <v>2311</v>
+      <c r="B10" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C10" s="5">
+        <v>2155</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A11" s="3">
         <v>9</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="C11" s="5">
-        <v>2155</v>
+      <c r="B11" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="7">
+        <v>2016</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A12" s="3">
         <v>10</v>
       </c>
-      <c r="B12" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C12" s="7">
-        <v>2016</v>
+      <c r="B12" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="5">
+        <v>2003</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A13" s="3">
         <v>11</v>
       </c>
-      <c r="B13" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" s="5">
-        <v>2003</v>
+      <c r="B13" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="C13" s="7">
+        <v>1954</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
@@ -3374,32 +3392,32 @@
         <v>12</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="C14" s="7">
-        <v>1954</v>
+        <v>1702</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A15" s="3">
         <v>13</v>
       </c>
-      <c r="B15" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="C15" s="7">
-        <v>1702</v>
+      <c r="B15" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" s="5">
+        <v>1551</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A16" s="3">
         <v>14</v>
       </c>
-      <c r="B16" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C16" s="5">
-        <v>1551</v>
+      <c r="B16" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="7">
+        <v>1431</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
@@ -3407,10 +3425,10 @@
         <v>15</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>18</v>
+        <v>70</v>
       </c>
       <c r="C17" s="7">
-        <v>1431</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
@@ -3418,54 +3436,54 @@
         <v>16</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>71</v>
+        <v>37</v>
       </c>
       <c r="C18" s="7">
-        <v>1270</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A19" s="3">
         <v>17</v>
       </c>
-      <c r="B19" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="C19" s="7">
-        <v>1259</v>
+      <c r="B19" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C19" s="5">
+        <v>1254</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A20" s="3">
         <v>18</v>
       </c>
-      <c r="B20" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="C20" s="5">
-        <v>1254</v>
+      <c r="B20" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C20" s="7">
+        <v>1170</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A21" s="3">
         <v>19</v>
       </c>
-      <c r="B21" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="C21" s="7">
-        <v>1170</v>
+      <c r="B21" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" s="5">
+        <v>1141</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A22" s="3">
         <v>20</v>
       </c>
-      <c r="B22" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C22" s="5">
-        <v>1141</v>
+      <c r="B22" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="C22" s="7">
+        <v>1124</v>
       </c>
     </row>
   </sheetData>
@@ -3482,8 +3500,8 @@
   </sheetPr>
   <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22:C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -3514,7 +3532,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C3" s="5">
         <v>1398</v>
@@ -3524,44 +3542,44 @@
       <c r="A4" s="3">
         <v>2</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="7">
-        <v>1256</v>
+      <c r="B4" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C4" s="5">
+        <v>1163</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A5" s="3">
         <v>3</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="C5" s="5">
-        <v>1163</v>
+      <c r="B5" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="7">
+        <v>862</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A6" s="3">
         <v>4</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="7">
-        <v>862</v>
+      <c r="B6" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="5">
+        <v>745</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A7" s="3">
         <v>5</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="5">
-        <v>745</v>
+      <c r="B7" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="7">
+        <v>638</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
@@ -3569,131 +3587,131 @@
         <v>6</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C8" s="7">
-        <v>638</v>
+        <v>466</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A9" s="3">
         <v>7</v>
       </c>
-      <c r="B9" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" s="7">
-        <v>466</v>
+      <c r="B9" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="5">
+        <v>451</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A10" s="3">
         <v>8</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C10" s="5">
-        <v>451</v>
+      <c r="B10" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10" s="7">
+        <v>419</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A11" s="3">
         <v>9</v>
       </c>
-      <c r="B11" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="C11" s="7">
-        <v>419</v>
+      <c r="B11" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="5">
+        <v>417</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A12" s="3">
         <v>10</v>
       </c>
-      <c r="B12" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" s="5">
-        <v>417</v>
+      <c r="B12" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="C12" s="7">
+        <v>384</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A13" s="3">
         <v>11</v>
       </c>
-      <c r="B13" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="C13" s="7">
-        <v>384</v>
+      <c r="B13" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="5">
+        <v>377</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A14" s="3">
         <v>12</v>
       </c>
-      <c r="B14" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C14" s="5">
-        <v>377</v>
+      <c r="B14" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="7">
+        <v>371</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A15" s="3">
         <v>13</v>
       </c>
-      <c r="B15" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C15" s="7">
-        <v>371</v>
+      <c r="B15" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C15" s="5">
+        <v>368</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A16" s="3">
         <v>14</v>
       </c>
-      <c r="B16" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="C16" s="5">
-        <v>368</v>
+      <c r="B16" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="7">
+        <v>360</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A17" s="3">
         <v>15</v>
       </c>
-      <c r="B17" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C17" s="7">
-        <v>360</v>
+      <c r="B17" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" s="5">
+        <v>347</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A18" s="3">
         <v>16</v>
       </c>
-      <c r="B18" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C18" s="5">
-        <v>347</v>
+      <c r="B18" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" s="7">
+        <v>342</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A19" s="3">
         <v>17</v>
       </c>
-      <c r="B19" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C19" s="7">
-        <v>342</v>
+      <c r="B19" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C19" s="5">
+        <v>339</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
@@ -3701,32 +3719,32 @@
         <v>18</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="C20" s="5">
-        <v>339</v>
+        <v>328</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A21" s="3">
         <v>19</v>
       </c>
-      <c r="B21" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="C21" s="5">
-        <v>328</v>
+      <c r="B21" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" s="7">
+        <v>322</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A22" s="3">
         <v>20</v>
       </c>
-      <c r="B22" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C22" s="7">
-        <v>322</v>
+      <c r="B22" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C22" s="5">
+        <v>316</v>
       </c>
     </row>
   </sheetData>
@@ -3743,8 +3761,8 @@
   </sheetPr>
   <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22:C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.08203125" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -3797,7 +3815,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C5" s="5">
         <v>3166</v>
@@ -3852,43 +3870,43 @@
         <v>8</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="C10" s="7">
-        <v>1681</v>
+        <v>1494</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A11" s="3">
         <v>9</v>
       </c>
-      <c r="B11" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C11" s="7">
-        <v>1494</v>
+      <c r="B11" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="5">
+        <v>1453</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A12" s="3">
         <v>10</v>
       </c>
-      <c r="B12" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12" s="5">
-        <v>1453</v>
+      <c r="B12" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" s="7">
+        <v>1356</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A13" s="3">
         <v>11</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C13" s="7">
-        <v>1356</v>
+      <c r="C13" s="5">
+        <v>1340</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
@@ -3896,98 +3914,98 @@
         <v>12</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="C14" s="5">
-        <v>1340</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A15" s="3">
         <v>13</v>
       </c>
-      <c r="B15" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C15" s="5">
-        <v>1286</v>
+      <c r="B15" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="7">
+        <v>1269</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A16" s="3">
         <v>14</v>
       </c>
-      <c r="B16" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C16" s="7">
-        <v>1269</v>
+      <c r="B16" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" s="5">
+        <v>1225</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A17" s="3">
         <v>15</v>
       </c>
-      <c r="B17" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C17" s="5">
-        <v>1225</v>
+      <c r="B17" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="C17" s="7">
+        <v>1184</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A18" s="3">
         <v>16</v>
       </c>
-      <c r="B18" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="C18" s="7">
-        <v>1184</v>
+      <c r="B18" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" s="5">
+        <v>1175</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A19" s="3">
         <v>17</v>
       </c>
-      <c r="B19" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C19" s="5">
-        <v>1175</v>
+      <c r="B19" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" s="7">
+        <v>1118</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A20" s="3">
         <v>18</v>
       </c>
-      <c r="B20" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20" s="7">
-        <v>1118</v>
+      <c r="B20" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" s="5">
+        <v>1116</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A21" s="3">
         <v>19</v>
       </c>
-      <c r="B21" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C21" s="5">
-        <v>1116</v>
+      <c r="B21" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C21" s="7">
+        <v>1078</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A22" s="3">
         <v>20</v>
       </c>
-      <c r="B22" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="C22" s="7">
-        <v>1078</v>
+      <c r="B22" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" s="5">
+        <v>1068</v>
       </c>
     </row>
   </sheetData>
@@ -4004,8 +4022,8 @@
   </sheetPr>
   <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22:C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -4035,99 +4053,99 @@
       <c r="A3" s="3">
         <v>1</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="5">
-        <v>984</v>
+      <c r="B3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="7">
+        <v>727</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A4" s="3">
         <v>2</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="7">
-        <v>727</v>
+      <c r="B4" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="5">
+        <v>481</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A5" s="3">
         <v>3</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C5" s="5">
-        <v>481</v>
+      <c r="B5" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="7">
+        <v>427</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A6" s="3">
         <v>4</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="7">
-        <v>427</v>
+      <c r="B6" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C6" s="5">
+        <v>422</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A7" s="3">
         <v>5</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="C7" s="5">
-        <v>422</v>
+      <c r="B7" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C7" s="7">
+        <v>377</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A8" s="3">
         <v>6</v>
       </c>
-      <c r="B8" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="C8" s="7">
-        <v>377</v>
+      <c r="B8" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="5">
+        <v>373</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A9" s="3">
         <v>7</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C9" s="5">
-        <v>373</v>
+      <c r="B9" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="7">
+        <v>330</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A10" s="3">
         <v>8</v>
       </c>
-      <c r="B10" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C10" s="7">
-        <v>330</v>
+      <c r="B10" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C10" s="5">
+        <v>323</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A11" s="3">
         <v>9</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="C11" s="5">
-        <v>323</v>
+      <c r="B11" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11" s="7">
+        <v>316</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
@@ -4135,10 +4153,10 @@
         <v>10</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="C12" s="7">
-        <v>316</v>
+        <v>300</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
@@ -4146,64 +4164,64 @@
         <v>11</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="C13" s="7">
-        <v>300</v>
+        <v>296</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A14" s="3">
         <v>12</v>
       </c>
-      <c r="B14" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" s="7">
-        <v>296</v>
+      <c r="B14" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="5">
+        <v>291</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A15" s="3">
         <v>13</v>
       </c>
-      <c r="B15" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C15" s="5">
-        <v>291</v>
+      <c r="B15" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="7">
+        <v>290</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A16" s="3">
         <v>14</v>
       </c>
-      <c r="B16" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C16" s="7">
-        <v>290</v>
+      <c r="B16" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" s="5">
+        <v>288</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A17" s="3">
         <v>15</v>
       </c>
-      <c r="B17" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C17" s="5">
-        <v>288</v>
+      <c r="B17" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="7">
+        <v>287</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A18" s="3">
         <v>16</v>
       </c>
-      <c r="B18" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C18" s="7">
+      <c r="B18" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" s="5">
         <v>287</v>
       </c>
     </row>
@@ -4211,44 +4229,44 @@
       <c r="A19" s="3">
         <v>17</v>
       </c>
-      <c r="B19" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C19" s="5">
-        <v>287</v>
+      <c r="B19" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="C19" s="7">
+        <v>277</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A20" s="3">
         <v>18</v>
       </c>
-      <c r="B20" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="C20" s="7">
-        <v>277</v>
+      <c r="B20" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C20" s="5">
+        <v>271</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A21" s="3">
         <v>19</v>
       </c>
-      <c r="B21" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="C21" s="5">
-        <v>271</v>
+      <c r="B21" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" s="7">
+        <v>255</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A22" s="3">
         <v>20</v>
       </c>
-      <c r="B22" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C22" s="7">
-        <v>255</v>
+      <c r="B22" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22" s="5">
+        <v>252</v>
       </c>
     </row>
   </sheetData>
@@ -4265,8 +4283,8 @@
   </sheetPr>
   <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22:C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -4307,99 +4325,99 @@
       <c r="A4" s="3">
         <v>2</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="7">
-        <v>711</v>
+      <c r="B4" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C4" s="5">
+        <v>488</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A5" s="3">
         <v>3</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="C5" s="5">
-        <v>488</v>
+      <c r="B5" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="7">
+        <v>424</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A6" s="3">
         <v>4</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="7">
-        <v>424</v>
+      <c r="B6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="5">
+        <v>419</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A7" s="3">
         <v>5</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="5">
-        <v>419</v>
+      <c r="B7" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="7">
+        <v>364</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A8" s="3">
         <v>6</v>
       </c>
-      <c r="B8" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="7">
-        <v>364</v>
+      <c r="B8" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C8" s="5">
+        <v>318</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A9" s="3">
         <v>7</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="C9" s="5">
-        <v>318</v>
+      <c r="B9" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="7">
+        <v>304</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A10" s="3">
         <v>8</v>
       </c>
-      <c r="B10" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C10" s="7">
-        <v>304</v>
+      <c r="B10" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="5">
+        <v>294</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A11" s="3">
         <v>9</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11" s="5">
-        <v>294</v>
+      <c r="B11" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="7">
+        <v>284</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A12" s="3">
         <v>10</v>
       </c>
-      <c r="B12" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" s="7">
-        <v>284</v>
+      <c r="B12" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="5">
+        <v>283</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
@@ -4407,109 +4425,109 @@
         <v>11</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="C13" s="5">
-        <v>283</v>
+        <v>240</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A14" s="3">
         <v>12</v>
       </c>
-      <c r="B14" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" s="5">
-        <v>240</v>
+      <c r="B14" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C14" s="7">
+        <v>225</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A15" s="3">
         <v>13</v>
       </c>
-      <c r="B15" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="C15" s="7">
-        <v>225</v>
+      <c r="B15" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="5">
+        <v>215</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A16" s="3">
         <v>14</v>
       </c>
-      <c r="B16" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C16" s="5">
-        <v>215</v>
+      <c r="B16" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="C16" s="7">
+        <v>211</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A17" s="3">
         <v>15</v>
       </c>
-      <c r="B17" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="C17" s="7">
-        <v>211</v>
+      <c r="B17" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="5">
+        <v>207</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A18" s="3">
         <v>16</v>
       </c>
-      <c r="B18" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C18" s="5">
-        <v>207</v>
+      <c r="B18" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C18" s="7">
+        <v>201</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A19" s="3">
         <v>17</v>
       </c>
-      <c r="B19" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="C19" s="7">
-        <v>201</v>
+      <c r="B19" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C19" s="5">
+        <v>200</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A20" s="3">
         <v>18</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="C20" s="5">
-        <v>200</v>
+      <c r="C20" s="7">
+        <v>198</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A21" s="3">
         <v>19</v>
       </c>
-      <c r="B21" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="C21" s="7">
-        <v>198</v>
+      <c r="B21" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C21" s="5">
+        <v>191</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A22" s="3">
         <v>20</v>
       </c>
-      <c r="B22" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="C22" s="5">
-        <v>191</v>
+      <c r="B22" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="C22" s="7">
+        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -4526,8 +4544,8 @@
   </sheetPr>
   <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22:C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -4557,43 +4575,43 @@
       <c r="A3" s="3">
         <v>1</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="5">
-        <v>612</v>
+      <c r="B3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="7">
+        <v>368</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A4" s="3">
         <v>2</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="7">
-        <v>368</v>
+      <c r="B4" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="5">
+        <v>306</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A5" s="3">
         <v>3</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" s="5">
-        <v>306</v>
+      <c r="B5" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="7">
+        <v>239</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A6" s="3">
         <v>4</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="7">
+      <c r="B6" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C6" s="5">
         <v>239</v>
       </c>
     </row>
@@ -4601,44 +4619,44 @@
       <c r="A7" s="3">
         <v>5</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="C7" s="5">
-        <v>239</v>
+      <c r="B7" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="7">
+        <v>236</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A8" s="3">
         <v>6</v>
       </c>
-      <c r="B8" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C8" s="7">
-        <v>236</v>
+      <c r="B8" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C8" s="5">
+        <v>224</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A9" s="3">
         <v>7</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="C9" s="5">
-        <v>224</v>
+      <c r="B9" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="7">
+        <v>221</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A10" s="3">
         <v>8</v>
       </c>
-      <c r="B10" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="7">
-        <v>221</v>
+      <c r="B10" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="5">
+        <v>219</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
@@ -4646,21 +4664,21 @@
         <v>9</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>4</v>
+        <v>51</v>
       </c>
       <c r="C11" s="5">
-        <v>219</v>
+        <v>206</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A12" s="3">
         <v>10</v>
       </c>
-      <c r="B12" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="C12" s="5">
-        <v>206</v>
+      <c r="B12" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="7">
+        <v>193</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
@@ -4668,65 +4686,65 @@
         <v>11</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C13" s="7">
-        <v>193</v>
+        <v>180</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A14" s="3">
         <v>12</v>
       </c>
-      <c r="B14" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" s="7">
-        <v>180</v>
+      <c r="B14" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C14" s="5">
+        <v>169</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A15" s="3">
         <v>13</v>
       </c>
-      <c r="B15" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="C15" s="5">
-        <v>169</v>
+      <c r="B15" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C15" s="7">
+        <v>164</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A16" s="3">
         <v>14</v>
       </c>
-      <c r="B16" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="C16" s="7">
-        <v>164</v>
+      <c r="B16" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C16" s="5">
+        <v>153</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A17" s="3">
         <v>15</v>
       </c>
-      <c r="B17" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="C17" s="5">
-        <v>153</v>
+      <c r="B17" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="7">
+        <v>152</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A18" s="3">
         <v>16</v>
       </c>
-      <c r="B18" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C18" s="7">
-        <v>152</v>
+      <c r="B18" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" s="5">
+        <v>148</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
@@ -4734,43 +4752,43 @@
         <v>17</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="C19" s="5">
-        <v>148</v>
+        <v>138</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A20" s="3">
         <v>18</v>
       </c>
-      <c r="B20" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C20" s="5">
-        <v>138</v>
+      <c r="B20" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" s="7">
+        <v>137</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A21" s="3">
         <v>19</v>
       </c>
-      <c r="B21" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C21" s="7">
-        <v>137</v>
+      <c r="B21" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" s="5">
+        <v>130</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A22" s="3">
         <v>20</v>
       </c>
-      <c r="B22" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C22" s="5">
-        <v>130</v>
+      <c r="B22" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="C22" s="7">
+        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -4787,8 +4805,8 @@
   </sheetPr>
   <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22:C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -4818,55 +4836,55 @@
       <c r="A3" s="3">
         <v>1</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="5">
-        <v>782</v>
+      <c r="B3" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="7">
+        <v>712</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A4" s="3">
         <v>2</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" s="7">
-        <v>712</v>
+      <c r="B4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="5">
+        <v>496</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A5" s="3">
         <v>3</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="5">
-        <v>496</v>
+      <c r="B5" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="C5" s="7">
+        <v>447</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A6" s="3">
         <v>4</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="C6" s="7">
-        <v>447</v>
+      <c r="B6" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="5">
+        <v>343</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A7" s="3">
         <v>5</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="5">
-        <v>343</v>
+      <c r="B7" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7" s="7">
+        <v>340</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
@@ -4874,109 +4892,109 @@
         <v>6</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>49</v>
+        <v>80</v>
       </c>
       <c r="C8" s="7">
-        <v>340</v>
+        <v>283</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A9" s="3">
         <v>7</v>
       </c>
-      <c r="B9" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="C9" s="7">
-        <v>283</v>
+      <c r="B9" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="5">
+        <v>276</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A10" s="3">
         <v>8</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="5">
-        <v>276</v>
+      <c r="B10" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="7">
+        <v>265</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A11" s="3">
         <v>9</v>
       </c>
-      <c r="B11" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="7">
-        <v>265</v>
+      <c r="B11" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C11" s="5">
+        <v>263</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A12" s="3">
         <v>10</v>
       </c>
-      <c r="B12" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="C12" s="5">
-        <v>263</v>
+      <c r="B12" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="7">
+        <v>248</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A13" s="3">
         <v>11</v>
       </c>
-      <c r="B13" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" s="7">
-        <v>248</v>
+      <c r="B13" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="5">
+        <v>245</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A14" s="3">
         <v>12</v>
       </c>
-      <c r="B14" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C14" s="5">
-        <v>245</v>
+      <c r="B14" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="7">
+        <v>232</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A15" s="3">
         <v>13</v>
       </c>
-      <c r="B15" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C15" s="7">
-        <v>232</v>
+      <c r="B15" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="5">
+        <v>231</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A16" s="3">
         <v>14</v>
       </c>
-      <c r="B16" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C16" s="5">
-        <v>231</v>
+      <c r="B16" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="7">
+        <v>214</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A17" s="3">
         <v>15</v>
       </c>
-      <c r="B17" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C17" s="7">
-        <v>214</v>
+      <c r="B17" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C17" s="5">
+        <v>210</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
@@ -4984,10 +5002,10 @@
         <v>16</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="C18" s="5">
-        <v>210</v>
+        <v>198</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
@@ -4995,10 +5013,10 @@
         <v>17</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="C19" s="5">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
@@ -5006,10 +5024,10 @@
         <v>18</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="C20" s="5">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
@@ -5017,20 +5035,20 @@
         <v>19</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="C21" s="5">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A22" s="3">
         <v>20</v>
       </c>
-      <c r="B22" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C22" s="5">
+      <c r="B22" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" s="7">
         <v>192</v>
       </c>
     </row>
@@ -5048,8 +5066,8 @@
   </sheetPr>
   <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22:C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -5079,99 +5097,99 @@
       <c r="A3" s="3">
         <v>1</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="5">
-        <v>934</v>
+      <c r="B3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="7">
+        <v>452</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A4" s="3">
         <v>2</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="7">
-        <v>452</v>
+      <c r="B4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="5">
+        <v>440</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A5" s="3">
         <v>3</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="5">
-        <v>440</v>
+      <c r="B5" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="C5" s="7">
+        <v>417</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A6" s="3">
         <v>4</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="C6" s="7">
-        <v>417</v>
+      <c r="B6" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C6" s="5">
+        <v>390</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A7" s="3">
         <v>5</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="C7" s="5">
-        <v>390</v>
+      <c r="B7" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="C7" s="7">
+        <v>369</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A8" s="3">
         <v>6</v>
       </c>
-      <c r="B8" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="C8" s="7">
-        <v>369</v>
+      <c r="B8" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="5">
+        <v>353</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A9" s="3">
         <v>7</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" s="5">
-        <v>353</v>
+      <c r="B9" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="7">
+        <v>306</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A10" s="3">
         <v>8</v>
       </c>
-      <c r="B10" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="7">
-        <v>306</v>
+      <c r="B10" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="5">
+        <v>302</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A11" s="3">
         <v>9</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" s="5">
-        <v>302</v>
+      <c r="B11" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="7">
+        <v>295</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
@@ -5179,119 +5197,119 @@
         <v>10</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="C12" s="7">
-        <v>295</v>
+        <v>278</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A13" s="3">
         <v>11</v>
       </c>
-      <c r="B13" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C13" s="7">
-        <v>278</v>
+      <c r="B13" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="5">
+        <v>277</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A14" s="3">
         <v>12</v>
       </c>
-      <c r="B14" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C14" s="5">
-        <v>277</v>
+      <c r="B14" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="7">
+        <v>255</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A15" s="3">
         <v>13</v>
       </c>
-      <c r="B15" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C15" s="7">
-        <v>255</v>
+      <c r="B15" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="5">
+        <v>242</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A16" s="3">
         <v>14</v>
       </c>
-      <c r="B16" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="5">
-        <v>242</v>
+      <c r="B16" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="7">
+        <v>238</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A17" s="3">
         <v>15</v>
       </c>
-      <c r="B17" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C17" s="7">
-        <v>238</v>
+      <c r="B17" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C17" s="5">
+        <v>234</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A18" s="3">
         <v>16</v>
       </c>
-      <c r="B18" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="C18" s="5">
-        <v>234</v>
+      <c r="B18" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="C18" s="7">
+        <v>230</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A19" s="3">
         <v>17</v>
       </c>
-      <c r="B19" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="C19" s="7">
-        <v>230</v>
+      <c r="B19" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C19" s="5">
+        <v>228</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A20" s="3">
         <v>18</v>
       </c>
-      <c r="B20" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="C20" s="5">
-        <v>228</v>
+      <c r="B20" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20" s="7">
+        <v>224</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A21" s="3">
         <v>19</v>
       </c>
-      <c r="B21" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C21" s="7">
-        <v>224</v>
+      <c r="B21" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21" s="5">
+        <v>193</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A22" s="3">
         <v>20</v>
       </c>
-      <c r="B22" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C22" s="5">
+      <c r="B22" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C22" s="7">
         <v>193</v>
       </c>
     </row>
@@ -5309,8 +5327,8 @@
   </sheetPr>
   <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22:C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -5340,99 +5358,99 @@
       <c r="A3" s="3">
         <v>1</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="5">
-        <v>798</v>
+      <c r="B3" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="7">
+        <v>477</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A4" s="3">
         <v>2</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" s="7">
-        <v>477</v>
+      <c r="B4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="5">
+        <v>455</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A5" s="3">
         <v>3</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="5">
-        <v>455</v>
+      <c r="B5" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="C5" s="7">
+        <v>419</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A6" s="3">
         <v>4</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="C6" s="7">
-        <v>419</v>
+      <c r="B6" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="5">
+        <v>382</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A7" s="3">
         <v>5</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="5">
-        <v>382</v>
+      <c r="B7" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="C7" s="7">
+        <v>349</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A8" s="3">
         <v>6</v>
       </c>
-      <c r="B8" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="C8" s="7">
-        <v>349</v>
+      <c r="B8" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C8" s="5">
+        <v>333</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A9" s="3">
         <v>7</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="C9" s="5">
-        <v>333</v>
+      <c r="B9" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="7">
+        <v>330</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A10" s="3">
         <v>8</v>
       </c>
-      <c r="B10" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" s="7">
-        <v>330</v>
+      <c r="B10" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C10" s="5">
+        <v>319</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A11" s="3">
         <v>9</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="C11" s="5">
-        <v>319</v>
+      <c r="B11" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" s="7">
+        <v>307</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
@@ -5440,32 +5458,32 @@
         <v>10</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>39</v>
+        <v>75</v>
       </c>
       <c r="C12" s="7">
-        <v>307</v>
+        <v>288</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A13" s="3">
         <v>11</v>
       </c>
-      <c r="B13" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="C13" s="7">
-        <v>288</v>
+      <c r="B13" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="5">
+        <v>285</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A14" s="3">
         <v>12</v>
       </c>
-      <c r="B14" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C14" s="5">
-        <v>285</v>
+      <c r="B14" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="7">
+        <v>281</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
@@ -5473,65 +5491,65 @@
         <v>13</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="C15" s="7">
-        <v>281</v>
+        <v>248</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A16" s="3">
         <v>14</v>
       </c>
-      <c r="B16" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C16" s="7">
-        <v>248</v>
+      <c r="B16" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="5">
+        <v>233</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A17" s="3">
         <v>15</v>
       </c>
-      <c r="B17" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C17" s="5">
-        <v>233</v>
+      <c r="B17" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="7">
+        <v>231</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A18" s="3">
         <v>16</v>
       </c>
-      <c r="B18" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C18" s="7">
-        <v>231</v>
+      <c r="B18" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C18" s="5">
+        <v>222</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A19" s="3">
         <v>17</v>
       </c>
-      <c r="B19" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="C19" s="5">
-        <v>222</v>
+      <c r="B19" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C19" s="7">
+        <v>216</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A20" s="3">
         <v>18</v>
       </c>
-      <c r="B20" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="C20" s="7">
-        <v>216</v>
+      <c r="B20" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C20" s="5">
+        <v>210</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
@@ -5539,21 +5557,21 @@
         <v>19</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>75</v>
+        <v>6</v>
       </c>
       <c r="C21" s="5">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A22" s="3">
         <v>20</v>
       </c>
-      <c r="B22" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C22" s="5">
-        <v>208</v>
+      <c r="B22" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C22" s="7">
+        <v>206</v>
       </c>
     </row>
   </sheetData>
@@ -5570,8 +5588,8 @@
   </sheetPr>
   <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22:C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -5601,153 +5619,153 @@
       <c r="A3" s="3">
         <v>1</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="5">
-        <v>472</v>
+      <c r="B3" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="7">
+        <v>413</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A4" s="3">
         <v>2</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" s="7">
-        <v>413</v>
+      <c r="B4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="5">
+        <v>308</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A5" s="3">
         <v>3</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="5">
-        <v>308</v>
+      <c r="B5" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="C5" s="7">
+        <v>307</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A6" s="3">
         <v>4</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="C6" s="7">
-        <v>307</v>
+      <c r="B6" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C6" s="5">
+        <v>264</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A7" s="3">
         <v>5</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="C7" s="5">
-        <v>264</v>
+      <c r="B7" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="C7" s="7">
+        <v>263</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A8" s="3">
         <v>6</v>
       </c>
-      <c r="B8" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="C8" s="7">
-        <v>263</v>
+      <c r="B8" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C8" s="5">
+        <v>261</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A9" s="3">
         <v>7</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="C9" s="5">
-        <v>261</v>
+      <c r="B9" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="7">
+        <v>233</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A10" s="3">
         <v>8</v>
       </c>
-      <c r="B10" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C10" s="7">
-        <v>233</v>
+      <c r="B10" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C10" s="5">
+        <v>227</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A11" s="3">
         <v>9</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="C11" s="5">
-        <v>227</v>
+      <c r="B11" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="7">
+        <v>193</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A12" s="3">
         <v>10</v>
       </c>
-      <c r="B12" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" s="7">
-        <v>193</v>
+      <c r="B12" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="5">
+        <v>176</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A13" s="3">
         <v>11</v>
       </c>
-      <c r="B13" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C13" s="5">
-        <v>176</v>
+      <c r="B13" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="7">
+        <v>172</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A14" s="3">
         <v>12</v>
       </c>
-      <c r="B14" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" s="7">
-        <v>172</v>
+      <c r="B14" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C14" s="5">
+        <v>160</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A15" s="3">
         <v>13</v>
       </c>
-      <c r="B15" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="C15" s="5">
-        <v>160</v>
+      <c r="B15" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="7">
+        <v>153</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A16" s="3">
         <v>14</v>
       </c>
-      <c r="B16" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C16" s="7">
+      <c r="B16" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" s="5">
         <v>153</v>
       </c>
     </row>
@@ -5755,33 +5773,33 @@
       <c r="A17" s="3">
         <v>15</v>
       </c>
-      <c r="B17" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C17" s="5">
-        <v>153</v>
+      <c r="B17" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C17" s="7">
+        <v>152</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A18" s="3">
         <v>16</v>
       </c>
-      <c r="B18" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="C18" s="7">
-        <v>152</v>
+      <c r="B18" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" s="5">
+        <v>147</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A19" s="3">
         <v>17</v>
       </c>
-      <c r="B19" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C19" s="5">
-        <v>147</v>
+      <c r="B19" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C19" s="7">
+        <v>142</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
@@ -5789,10 +5807,10 @@
         <v>18</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>73</v>
+        <v>9</v>
       </c>
       <c r="C20" s="7">
-        <v>142</v>
+        <v>137</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
@@ -5800,10 +5818,10 @@
         <v>19</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="C21" s="7">
-        <v>137</v>
+        <v>128</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
@@ -5811,10 +5829,10 @@
         <v>20</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>31</v>
+        <v>111</v>
       </c>
       <c r="C22" s="7">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>
@@ -5831,8 +5849,8 @@
   </sheetPr>
   <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22:C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -5862,54 +5880,54 @@
       <c r="A3" s="3">
         <v>1</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="5">
-        <v>472</v>
+      <c r="B3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="7">
+        <v>320</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A4" s="3">
         <v>2</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="7">
-        <v>320</v>
+      <c r="B4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="5">
+        <v>309</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A5" s="3">
         <v>3</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="5">
-        <v>309</v>
+      <c r="B5" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="7">
+        <v>294</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A6" s="3">
         <v>4</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="7">
-        <v>294</v>
+      <c r="B6" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="5">
+        <v>283</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A7" s="3">
         <v>5</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="5">
+      <c r="B7" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="7">
         <v>283</v>
       </c>
     </row>
@@ -5917,165 +5935,165 @@
       <c r="A8" s="3">
         <v>6</v>
       </c>
-      <c r="B8" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C8" s="7">
-        <v>283</v>
+      <c r="B8" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" s="5">
+        <v>267</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A9" s="3">
         <v>7</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C9" s="5">
-        <v>267</v>
+      <c r="B9" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="7">
+        <v>256</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A10" s="3">
         <v>8</v>
       </c>
-      <c r="B10" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C10" s="7">
-        <v>256</v>
+      <c r="B10" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="5">
+        <v>230</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A11" s="3">
         <v>9</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C11" s="5">
-        <v>230</v>
+      <c r="B11" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C11" s="7">
+        <v>224</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A12" s="3">
         <v>10</v>
       </c>
-      <c r="B12" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="C12" s="7">
-        <v>224</v>
+      <c r="B12" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="5">
+        <v>216</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A13" s="3">
         <v>11</v>
       </c>
-      <c r="B13" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C13" s="5">
-        <v>216</v>
+      <c r="B13" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="C13" s="7">
+        <v>211</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A14" s="3">
         <v>12</v>
       </c>
-      <c r="B14" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="C14" s="7">
-        <v>211</v>
+      <c r="B14" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C14" s="5">
+        <v>208</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A15" s="3">
         <v>13</v>
       </c>
-      <c r="B15" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="C15" s="5">
-        <v>208</v>
+      <c r="B15" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="7">
+        <v>197</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A16" s="3">
         <v>14</v>
       </c>
-      <c r="B16" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C16" s="7">
-        <v>197</v>
+      <c r="B16" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="5">
+        <v>196</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A17" s="3">
         <v>15</v>
       </c>
-      <c r="B17" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C17" s="5">
-        <v>196</v>
+      <c r="B17" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" s="7">
+        <v>194</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A18" s="3">
         <v>16</v>
       </c>
-      <c r="B18" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C18" s="7">
-        <v>194</v>
+      <c r="B18" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="C18" s="5">
+        <v>193</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A19" s="3">
         <v>17</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="C19" s="5">
-        <v>193</v>
+      <c r="C19" s="7">
+        <v>187</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A20" s="3">
         <v>18</v>
       </c>
-      <c r="B20" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="C20" s="7">
-        <v>187</v>
+      <c r="B20" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C20" s="5">
+        <v>184</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A21" s="3">
         <v>19</v>
       </c>
-      <c r="B21" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="C21" s="5">
-        <v>184</v>
+      <c r="B21" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21" s="7">
+        <v>181</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A22" s="3">
         <v>20</v>
       </c>
-      <c r="B22" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C22" s="7">
-        <v>181</v>
+      <c r="B22" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C22" s="5">
+        <v>177</v>
       </c>
     </row>
   </sheetData>
@@ -6092,8 +6110,8 @@
   </sheetPr>
   <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22:C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -6125,7 +6143,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C3" s="5">
         <v>1527</v>
@@ -6136,7 +6154,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C4" s="7">
         <v>755</v>
@@ -6147,7 +6165,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C5" s="5">
         <v>496</v>
@@ -6169,7 +6187,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C7" s="5">
         <v>446</v>
@@ -6191,7 +6209,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C9" s="5">
         <v>405</v>
@@ -6213,7 +6231,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C11" s="5">
         <v>394</v>
@@ -6223,88 +6241,88 @@
       <c r="A12" s="3">
         <v>10</v>
       </c>
-      <c r="B12" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" s="7">
-        <v>346</v>
+      <c r="B12" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C12" s="5">
+        <v>326</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A13" s="3">
         <v>11</v>
       </c>
-      <c r="B13" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="C13" s="5">
-        <v>326</v>
+      <c r="B13" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C13" s="7">
+        <v>293</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A14" s="3">
         <v>12</v>
       </c>
-      <c r="B14" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="C14" s="7">
-        <v>293</v>
+      <c r="B14" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C14" s="5">
+        <v>291</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A15" s="3">
         <v>13</v>
       </c>
-      <c r="B15" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="C15" s="5">
-        <v>291</v>
+      <c r="B15" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="7">
+        <v>282</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A16" s="3">
         <v>14</v>
       </c>
-      <c r="B16" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C16" s="7">
-        <v>282</v>
+      <c r="B16" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="C16" s="5">
+        <v>263</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A17" s="3">
         <v>15</v>
       </c>
-      <c r="B17" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="C17" s="5">
-        <v>263</v>
+      <c r="B17" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="7">
+        <v>261</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A18" s="3">
         <v>16</v>
       </c>
-      <c r="B18" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C18" s="7">
-        <v>261</v>
+      <c r="B18" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" s="5">
+        <v>238</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A19" s="3">
         <v>17</v>
       </c>
-      <c r="B19" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C19" s="5">
-        <v>238</v>
+      <c r="B19" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="C19" s="7">
+        <v>232</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
@@ -6312,10 +6330,10 @@
         <v>18</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="C20" s="7">
-        <v>232</v>
+        <v>200</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
@@ -6323,21 +6341,21 @@
         <v>19</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>60</v>
+        <v>28</v>
       </c>
       <c r="C21" s="7">
-        <v>200</v>
+        <v>187</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A22" s="3">
         <v>20</v>
       </c>
-      <c r="B22" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C22" s="7">
-        <v>187</v>
+      <c r="B22" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C22" s="5">
+        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -6354,8 +6372,8 @@
   </sheetPr>
   <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22:C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -6387,7 +6405,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C3" s="5">
         <v>611</v>
@@ -6398,7 +6416,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C4" s="7">
         <v>352</v>
@@ -6408,88 +6426,88 @@
       <c r="A5" s="3">
         <v>3</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="5">
-        <v>235</v>
+      <c r="B5" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="7">
+        <v>230</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A6" s="3">
         <v>4</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="7">
-        <v>230</v>
+      <c r="B6" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C6" s="5">
+        <v>211</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A7" s="3">
         <v>5</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="C7" s="5">
-        <v>211</v>
+      <c r="B7" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="7">
+        <v>203</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A8" s="3">
         <v>6</v>
       </c>
-      <c r="B8" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" s="7">
-        <v>203</v>
+      <c r="B8" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C8" s="5">
+        <v>190</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A9" s="3">
         <v>7</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="C9" s="5">
-        <v>190</v>
+      <c r="B9" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="7">
+        <v>189</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A10" s="3">
         <v>8</v>
       </c>
-      <c r="B10" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" s="7">
-        <v>189</v>
+      <c r="B10" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C10" s="5">
+        <v>187</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A11" s="3">
         <v>9</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="C11" s="5">
-        <v>187</v>
+      <c r="B11" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="7">
+        <v>186</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A12" s="3">
         <v>10</v>
       </c>
-      <c r="B12" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C12" s="7">
-        <v>186</v>
+      <c r="B12" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="5">
+        <v>181</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
@@ -6497,109 +6515,109 @@
         <v>11</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="C13" s="5">
-        <v>181</v>
+        <v>170</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A14" s="3">
         <v>12</v>
       </c>
-      <c r="B14" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C14" s="5">
-        <v>170</v>
+      <c r="B14" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="C14" s="7">
+        <v>169</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A15" s="3">
         <v>13</v>
       </c>
-      <c r="B15" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="C15" s="7">
-        <v>169</v>
+      <c r="B15" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C15" s="5">
+        <v>139</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A16" s="3">
         <v>14</v>
       </c>
-      <c r="B16" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="C16" s="5">
-        <v>139</v>
+      <c r="B16" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" s="7">
+        <v>131</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A17" s="3">
         <v>15</v>
       </c>
-      <c r="B17" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C17" s="7">
-        <v>131</v>
+      <c r="B17" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="5">
+        <v>130</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A18" s="3">
         <v>16</v>
       </c>
-      <c r="B18" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C18" s="5">
-        <v>130</v>
+      <c r="B18" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="C18" s="7">
+        <v>124</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A19" s="3">
         <v>17</v>
       </c>
-      <c r="B19" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="C19" s="7">
-        <v>124</v>
+      <c r="B19" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C19" s="5">
+        <v>117</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A20" s="3">
         <v>18</v>
       </c>
-      <c r="B20" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="C20" s="5">
-        <v>117</v>
+      <c r="B20" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" s="7">
+        <v>109</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A21" s="3">
         <v>19</v>
       </c>
-      <c r="B21" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C21" s="7">
-        <v>109</v>
+      <c r="B21" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C21" s="5">
+        <v>102</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A22" s="3">
         <v>20</v>
       </c>
-      <c r="B22" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="C22" s="5">
-        <v>102</v>
+      <c r="B22" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="C22" s="7">
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -6617,7 +6635,7 @@
   <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="B22" sqref="B22:C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -6691,33 +6709,33 @@
       <c r="A7" s="3">
         <v>5</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="5">
-        <v>2553</v>
+      <c r="B7" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="7">
+        <v>2414</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A8" s="3">
         <v>6</v>
       </c>
-      <c r="B8" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="7">
-        <v>2414</v>
+      <c r="B8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="5">
+        <v>2240</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A9" s="3">
         <v>7</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="5">
-        <v>2240</v>
+      <c r="B9" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="7">
+        <v>2219</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
@@ -6725,76 +6743,76 @@
         <v>8</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="C10" s="7">
-        <v>2219</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A11" s="3">
         <v>9</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="7">
-        <v>2024</v>
+      <c r="C11" s="5">
+        <v>2014</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A12" s="3">
         <v>10</v>
       </c>
-      <c r="B12" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12" s="5">
-        <v>2014</v>
+      <c r="B12" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" s="7">
+        <v>1984</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A13" s="3">
         <v>11</v>
       </c>
-      <c r="B13" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="C13" s="7">
-        <v>1984</v>
+      <c r="B13" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="5">
+        <v>1977</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A14" s="3">
         <v>12</v>
       </c>
-      <c r="B14" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" s="5">
-        <v>1977</v>
+      <c r="B14" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="7">
+        <v>1843</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A15" s="3">
         <v>13</v>
       </c>
-      <c r="B15" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C15" s="7">
-        <v>1843</v>
+      <c r="B15" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="5">
+        <v>1827</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A16" s="3">
         <v>14</v>
       </c>
-      <c r="B16" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C16" s="5">
-        <v>1827</v>
+      <c r="B16" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" s="7">
+        <v>1792</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
@@ -6802,54 +6820,54 @@
         <v>15</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="C17" s="7">
-        <v>1792</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A18" s="3">
         <v>16</v>
       </c>
-      <c r="B18" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C18" s="7">
-        <v>1640</v>
+      <c r="B18" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" s="5">
+        <v>1633</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A19" s="3">
         <v>17</v>
       </c>
-      <c r="B19" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="5">
-        <v>1633</v>
+      <c r="B19" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19" s="7">
+        <v>1591</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A20" s="3">
         <v>18</v>
       </c>
-      <c r="B20" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="C20" s="7">
-        <v>1591</v>
+      <c r="B20" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C20" s="5">
+        <v>1457</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A21" s="3">
         <v>19</v>
       </c>
-      <c r="B21" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C21" s="5">
-        <v>1457</v>
+      <c r="B21" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" s="7">
+        <v>1453</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
@@ -6857,10 +6875,10 @@
         <v>20</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C22" s="7">
-        <v>1453</v>
+        <v>1415</v>
       </c>
     </row>
   </sheetData>
@@ -6891,8 +6909,8 @@
   </sheetPr>
   <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22:C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -6956,7 +6974,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C6" s="7">
         <v>5957</v>
@@ -6977,66 +6995,66 @@
       <c r="A8" s="3">
         <v>6</v>
       </c>
-      <c r="B8" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="7">
-        <v>5605</v>
+      <c r="B8" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" s="5">
+        <v>5265</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A9" s="3">
         <v>7</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C9" s="5">
-        <v>5265</v>
+      <c r="B9" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="7">
+        <v>4563</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A10" s="3">
         <v>8</v>
       </c>
-      <c r="B10" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="7">
-        <v>4563</v>
+      <c r="B10" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="5">
+        <v>4170</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A11" s="3">
         <v>9</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="5">
-        <v>4170</v>
+      <c r="B11" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" s="7">
+        <v>4140</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A12" s="3">
         <v>10</v>
       </c>
-      <c r="B12" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="C12" s="7">
-        <v>4140</v>
+      <c r="B12" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" s="5">
+        <v>4091</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A13" s="3">
         <v>11</v>
       </c>
-      <c r="B13" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C13" s="5">
-        <v>4091</v>
+      <c r="B13" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="7">
+        <v>3925</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
@@ -7044,10 +7062,10 @@
         <v>12</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="C14" s="7">
-        <v>3925</v>
+        <v>3480</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
@@ -7055,65 +7073,65 @@
         <v>13</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="C15" s="7">
-        <v>3480</v>
+        <v>3465</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A16" s="3">
         <v>14</v>
       </c>
-      <c r="B16" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C16" s="7">
-        <v>3465</v>
+      <c r="B16" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" s="5">
+        <v>3378</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A17" s="3">
         <v>15</v>
       </c>
-      <c r="B17" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C17" s="5">
-        <v>3378</v>
+      <c r="B17" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="7">
+        <v>3313</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A18" s="3">
         <v>16</v>
       </c>
-      <c r="B18" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C18" s="7">
-        <v>3313</v>
+      <c r="B18" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" s="5">
+        <v>3225</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A19" s="3">
         <v>17</v>
       </c>
-      <c r="B19" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C19" s="5">
-        <v>3225</v>
+      <c r="B19" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" s="7">
+        <v>2989</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A20" s="3">
         <v>18</v>
       </c>
-      <c r="B20" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C20" s="7">
-        <v>2989</v>
+      <c r="B20" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C20" s="5">
+        <v>2974</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
@@ -7121,21 +7139,21 @@
         <v>19</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="C21" s="5">
-        <v>2974</v>
+        <v>2741</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A22" s="3">
         <v>20</v>
       </c>
-      <c r="B22" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C22" s="5">
-        <v>2741</v>
+      <c r="B22" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22" s="7">
+        <v>2663</v>
       </c>
     </row>
   </sheetData>
@@ -7152,8 +7170,8 @@
   </sheetPr>
   <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22:C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -7195,7 +7213,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C4" s="7">
         <v>5601</v>
@@ -7217,7 +7235,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C6" s="7">
         <v>3811</v>
@@ -7249,66 +7267,66 @@
       <c r="A9" s="3">
         <v>7</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="5">
-        <v>3208</v>
+      <c r="B9" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" s="7">
+        <v>2582</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A10" s="3">
         <v>8</v>
       </c>
-      <c r="B10" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="C10" s="7">
-        <v>2582</v>
+      <c r="B10" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="5">
+        <v>2536</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A11" s="3">
         <v>9</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="5">
-        <v>2536</v>
+      <c r="B11" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C11" s="7">
+        <v>2261</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A12" s="3">
         <v>10</v>
       </c>
-      <c r="B12" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="C12" s="7">
-        <v>2261</v>
+      <c r="B12" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="5">
+        <v>2205</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A13" s="3">
         <v>11</v>
       </c>
-      <c r="B13" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" s="5">
-        <v>2205</v>
+      <c r="B13" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="7">
+        <v>1908</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A14" s="3">
         <v>12</v>
       </c>
-      <c r="B14" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" s="7">
-        <v>1908</v>
+      <c r="B14" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="5">
+        <v>1662</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
@@ -7316,43 +7334,43 @@
         <v>13</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="C15" s="5">
-        <v>1662</v>
+        <v>1605</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A16" s="3">
         <v>14</v>
       </c>
-      <c r="B16" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C16" s="5">
-        <v>1605</v>
+      <c r="B16" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C16" s="7">
+        <v>1569</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A17" s="3">
         <v>15</v>
       </c>
-      <c r="B17" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="C17" s="7">
-        <v>1569</v>
+      <c r="B17" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="5">
+        <v>1556</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A18" s="3">
         <v>16</v>
       </c>
-      <c r="B18" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C18" s="5">
-        <v>1556</v>
+      <c r="B18" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" s="7">
+        <v>1553</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
@@ -7360,43 +7378,43 @@
         <v>17</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C19" s="7">
-        <v>1553</v>
+        <v>1454</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A20" s="3">
         <v>18</v>
       </c>
-      <c r="B20" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C20" s="7">
-        <v>1454</v>
+      <c r="B20" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C20" s="5">
+        <v>1421</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A21" s="3">
         <v>19</v>
       </c>
-      <c r="B21" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C21" s="5">
-        <v>1421</v>
+      <c r="B21" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" s="7">
+        <v>1411</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A22" s="3">
         <v>20</v>
       </c>
-      <c r="B22" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C22" s="7">
-        <v>1411</v>
+      <c r="B22" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C22" s="5">
+        <v>1374</v>
       </c>
     </row>
   </sheetData>
@@ -7413,8 +7431,8 @@
   </sheetPr>
   <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A23" sqref="A23:XFD52"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22:C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -7455,132 +7473,132 @@
       <c r="A4" s="3">
         <v>2</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="7">
-        <v>2447</v>
+      <c r="B4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="5">
+        <v>2112</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A5" s="3">
         <v>3</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="5">
-        <v>2112</v>
+      <c r="B5" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="7">
+        <v>1892</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A6" s="3">
         <v>4</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="7">
-        <v>1892</v>
+      <c r="B6" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C6" s="5">
+        <v>1877</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A7" s="3">
         <v>5</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="C7" s="5">
-        <v>1877</v>
+      <c r="B7" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="7">
+        <v>1558</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A8" s="3">
         <v>6</v>
       </c>
-      <c r="B8" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="7">
-        <v>1558</v>
+      <c r="B8" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="5">
+        <v>1503</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A9" s="3">
         <v>7</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C9" s="5">
-        <v>1503</v>
+      <c r="B9" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="7">
+        <v>1343</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A10" s="3">
         <v>8</v>
       </c>
-      <c r="B10" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10" s="7">
-        <v>1343</v>
+      <c r="B10" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="5">
+        <v>1327</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A11" s="3">
         <v>9</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="5">
-        <v>1327</v>
+      <c r="B11" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="7">
+        <v>1041</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A12" s="3">
         <v>10</v>
       </c>
-      <c r="B12" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C12" s="7">
-        <v>1041</v>
+      <c r="B12" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="5">
+        <v>1033</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A13" s="3">
         <v>11</v>
       </c>
-      <c r="B13" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13" s="5">
-        <v>1033</v>
+      <c r="B13" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="7">
+        <v>1028</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A14" s="3">
         <v>12</v>
       </c>
-      <c r="B14" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C14" s="7">
-        <v>1028</v>
+      <c r="B14" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" s="5">
+        <v>1019</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A15" s="3">
         <v>13</v>
       </c>
-      <c r="B15" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C15" s="5">
-        <v>1019</v>
+      <c r="B15" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C15" s="7">
+        <v>981</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
@@ -7588,32 +7606,32 @@
         <v>14</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="C16" s="7">
-        <v>981</v>
+        <v>934</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A17" s="3">
         <v>15</v>
       </c>
-      <c r="B17" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="C17" s="7">
-        <v>934</v>
+      <c r="B17" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C17" s="5">
+        <v>913</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A18" s="3">
         <v>16</v>
       </c>
-      <c r="B18" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="C18" s="5">
-        <v>913</v>
+      <c r="B18" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" s="7">
+        <v>893</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
@@ -7621,43 +7639,43 @@
         <v>17</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="C19" s="7">
-        <v>893</v>
+        <v>855</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A20" s="3">
         <v>18</v>
       </c>
-      <c r="B20" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C20" s="7">
-        <v>855</v>
+      <c r="B20" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20" s="5">
+        <v>851</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A21" s="3">
         <v>19</v>
       </c>
-      <c r="B21" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C21" s="5">
-        <v>851</v>
+      <c r="B21" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C21" s="7">
+        <v>825</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A22" s="3">
         <v>20</v>
       </c>
-      <c r="B22" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="C22" s="7">
-        <v>825</v>
+      <c r="B22" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C22" s="5">
+        <v>806</v>
       </c>
     </row>
   </sheetData>
@@ -7674,8 +7692,8 @@
   </sheetPr>
   <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22:C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -7716,110 +7734,110 @@
       <c r="A4" s="3">
         <v>2</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="7">
-        <v>2304</v>
+      <c r="B4" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4" s="5">
+        <v>1900</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A5" s="3">
         <v>3</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="C5" s="5">
-        <v>1900</v>
+      <c r="B5" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="7">
+        <v>1834</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A6" s="3">
         <v>4</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" s="7">
-        <v>1834</v>
+      <c r="B6" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="5">
+        <v>1469</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A7" s="3">
         <v>5</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="5">
-        <v>1469</v>
+      <c r="B7" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="7">
+        <v>1322</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A8" s="3">
         <v>6</v>
       </c>
-      <c r="B8" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="7">
-        <v>1322</v>
+      <c r="B8" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="5">
+        <v>1299</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A9" s="3">
         <v>7</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="5">
-        <v>1299</v>
+      <c r="B9" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="7">
+        <v>1267</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A10" s="3">
         <v>8</v>
       </c>
-      <c r="B10" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10" s="7">
-        <v>1267</v>
+      <c r="B10" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="5">
+        <v>1111</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A11" s="3">
         <v>9</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="5">
-        <v>1111</v>
+      <c r="B11" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="7">
+        <v>1080</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A12" s="3">
         <v>10</v>
       </c>
-      <c r="B12" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" s="7">
-        <v>1080</v>
+      <c r="B12" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="5">
+        <v>1011</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A13" s="3">
         <v>11</v>
       </c>
-      <c r="B13" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C13" s="5">
-        <v>1011</v>
+      <c r="B13" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="7">
+        <v>975</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
@@ -7827,76 +7845,76 @@
         <v>12</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="C14" s="7">
-        <v>975</v>
+        <v>884</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A15" s="3">
         <v>13</v>
       </c>
-      <c r="B15" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="C15" s="7">
-        <v>884</v>
+      <c r="B15" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="5">
+        <v>867</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A16" s="3">
         <v>14</v>
       </c>
-      <c r="B16" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C16" s="5">
-        <v>867</v>
+      <c r="B16" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C16" s="7">
+        <v>848</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A17" s="3">
         <v>15</v>
       </c>
-      <c r="B17" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="C17" s="7">
-        <v>848</v>
+      <c r="B17" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C17" s="5">
+        <v>779</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A18" s="3">
         <v>16</v>
       </c>
-      <c r="B18" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="C18" s="5">
-        <v>779</v>
+      <c r="B18" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" s="7">
+        <v>743</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A19" s="3">
         <v>17</v>
       </c>
-      <c r="B19" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="C19" s="7">
-        <v>743</v>
+      <c r="B19" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C19" s="5">
+        <v>741</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A20" s="3">
         <v>18</v>
       </c>
-      <c r="B20" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="C20" s="5">
-        <v>741</v>
+      <c r="B20" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="7">
+        <v>734</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
@@ -7904,21 +7922,21 @@
         <v>19</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="C21" s="7">
-        <v>734</v>
+        <v>718</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A22" s="3">
         <v>20</v>
       </c>
-      <c r="B22" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C22" s="7">
-        <v>718</v>
+      <c r="B22" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C22" s="5">
+        <v>714</v>
       </c>
     </row>
   </sheetData>
@@ -7935,8 +7953,8 @@
   </sheetPr>
   <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22:C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -7967,7 +7985,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C3" s="5">
         <v>4026</v>
@@ -7989,7 +8007,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C5" s="5">
         <v>3823</v>
@@ -7999,102 +8017,102 @@
       <c r="A6" s="3">
         <v>4</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="7">
-        <v>3680</v>
+      <c r="B6" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="5">
+        <v>2910</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A7" s="3">
         <v>5</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="5">
-        <v>2910</v>
+      <c r="B7" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C7" s="7">
+        <v>2870</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A8" s="3">
         <v>6</v>
       </c>
-      <c r="B8" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="C8" s="7">
-        <v>2870</v>
+      <c r="B8" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C8" s="5">
+        <v>2711</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A9" s="3">
         <v>7</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="C9" s="5">
-        <v>2711</v>
+      <c r="B9" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="7">
+        <v>2347</v>
       </c>
       <c r="H9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A10" s="3">
         <v>8</v>
       </c>
-      <c r="B10" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="7">
-        <v>2347</v>
+      <c r="B10" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="5">
+        <v>2316</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A11" s="3">
         <v>9</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="5">
-        <v>2316</v>
+      <c r="B11" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C11" s="7">
+        <v>1909</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A12" s="3">
         <v>10</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="C12" s="7">
-        <v>1909</v>
+      <c r="C12" s="5">
+        <v>1731</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A13" s="3">
         <v>11</v>
       </c>
-      <c r="B13" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="C13" s="5">
-        <v>1731</v>
+      <c r="B13" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="7">
+        <v>1634</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A14" s="3">
         <v>12</v>
       </c>
-      <c r="B14" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C14" s="7">
-        <v>1634</v>
+      <c r="B14" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C14" s="5">
+        <v>1611</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
@@ -8102,87 +8120,87 @@
         <v>13</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="C15" s="5">
-        <v>1611</v>
+        <v>1490</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A16" s="3">
         <v>14</v>
       </c>
-      <c r="B16" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C16" s="5">
-        <v>1490</v>
+      <c r="B16" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C16" s="7">
+        <v>1465</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A17" s="3">
         <v>15</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="C17" s="7">
-        <v>1465</v>
+      <c r="C17" s="5">
+        <v>1390</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A18" s="3">
         <v>16</v>
       </c>
-      <c r="B18" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="C18" s="5">
-        <v>1390</v>
+      <c r="B18" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18" s="7">
+        <v>1362</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A19" s="3">
         <v>17</v>
       </c>
-      <c r="B19" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C19" s="7">
-        <v>1362</v>
+      <c r="B19" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" s="5">
+        <v>1345</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A20" s="3">
         <v>18</v>
       </c>
-      <c r="B20" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C20" s="5">
-        <v>1345</v>
+      <c r="B20" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" s="7">
+        <v>1339</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A21" s="3">
         <v>19</v>
       </c>
-      <c r="B21" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C21" s="7">
-        <v>1339</v>
+      <c r="B21" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="C21" s="5">
+        <v>1322</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A22" s="3">
         <v>20</v>
       </c>
-      <c r="B22" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="C22" s="5">
-        <v>1322</v>
+      <c r="B22" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" s="7">
+        <v>1302</v>
       </c>
     </row>
   </sheetData>
@@ -8199,8 +8217,8 @@
   </sheetPr>
   <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22:C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -8252,154 +8270,154 @@
       <c r="A5" s="3">
         <v>3</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="5">
-        <v>2015</v>
+      <c r="B5" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="7">
+        <v>1664</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A6" s="3">
         <v>4</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="7">
-        <v>1664</v>
+      <c r="B6" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="5">
+        <v>1240</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A7" s="3">
         <v>5</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="5">
-        <v>1240</v>
+      <c r="B7" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C7" s="7">
+        <v>1235</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A8" s="3">
         <v>6</v>
       </c>
-      <c r="B8" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="C8" s="7">
-        <v>1235</v>
+      <c r="B8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="5">
+        <v>1007</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A9" s="3">
         <v>7</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="5">
-        <v>1007</v>
+      <c r="B9" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="7">
+        <v>845</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A10" s="3">
         <v>8</v>
       </c>
-      <c r="B10" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" s="7">
-        <v>845</v>
+      <c r="B10" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="5">
+        <v>811</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A11" s="3">
         <v>9</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="5">
-        <v>811</v>
+      <c r="C11" s="7">
+        <v>806</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A12" s="3">
         <v>10</v>
       </c>
-      <c r="B12" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C12" s="7">
-        <v>806</v>
+      <c r="B12" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="5">
+        <v>722</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A13" s="3">
         <v>11</v>
       </c>
-      <c r="B13" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" s="5">
-        <v>722</v>
+      <c r="B13" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="7">
+        <v>713</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A14" s="3">
         <v>12</v>
       </c>
-      <c r="B14" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C14" s="7">
-        <v>713</v>
+      <c r="B14" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" s="5">
+        <v>687</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A15" s="3">
         <v>13</v>
       </c>
-      <c r="B15" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C15" s="5">
-        <v>687</v>
+      <c r="B15" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="7">
+        <v>676</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A16" s="3">
         <v>14</v>
       </c>
-      <c r="B16" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C16" s="7">
-        <v>676</v>
+      <c r="B16" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="5">
+        <v>663</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A17" s="3">
         <v>15</v>
       </c>
-      <c r="B17" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C17" s="5">
-        <v>663</v>
+      <c r="B17" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" s="7">
+        <v>643</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A18" s="3">
         <v>16</v>
       </c>
-      <c r="B18" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C18" s="7">
-        <v>643</v>
+      <c r="B18" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" s="5">
+        <v>626</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
@@ -8407,43 +8425,43 @@
         <v>17</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="C19" s="5">
-        <v>626</v>
+        <v>624</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A20" s="3">
         <v>18</v>
       </c>
-      <c r="B20" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C20" s="5">
-        <v>624</v>
+      <c r="B20" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" s="7">
+        <v>623</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A21" s="3">
         <v>19</v>
       </c>
-      <c r="B21" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C21" s="7">
-        <v>623</v>
+      <c r="B21" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21" s="5">
+        <v>592</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A22" s="3">
         <v>20</v>
       </c>
-      <c r="B22" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C22" s="5">
-        <v>592</v>
+      <c r="B22" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C22" s="7">
+        <v>584</v>
       </c>
     </row>
   </sheetData>
